--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Vtn-Itgb6.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Vtn-Itgb6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>Itgb6</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.69605100093472</v>
+        <v>3.94917</v>
       </c>
       <c r="H2">
-        <v>3.69605100093472</v>
+        <v>11.84751</v>
       </c>
       <c r="I2">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="J2">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.65173793796978</v>
+        <v>0.1271473333333333</v>
       </c>
       <c r="N2">
-        <v>1.65173793796978</v>
+        <v>0.381442</v>
       </c>
       <c r="O2">
-        <v>0.2944044576023635</v>
+        <v>0.01931841559435267</v>
       </c>
       <c r="P2">
-        <v>0.2944044576023635</v>
+        <v>0.01931841559435268</v>
       </c>
       <c r="Q2">
-        <v>6.104907658915057</v>
+        <v>0.50212643438</v>
       </c>
       <c r="R2">
-        <v>6.104907658915057</v>
+        <v>4.51913790942</v>
       </c>
       <c r="S2">
-        <v>0.04020952471974106</v>
+        <v>0.002652014698581575</v>
       </c>
       <c r="T2">
-        <v>0.04020952471974106</v>
+        <v>0.002652014698581576</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,309 +587,1177 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.69605100093472</v>
+        <v>3.94917</v>
       </c>
       <c r="H3">
-        <v>3.69605100093472</v>
+        <v>11.84751</v>
       </c>
       <c r="I3">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="J3">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.95869999976245</v>
+        <v>1.953533666666667</v>
       </c>
       <c r="N3">
-        <v>3.95869999976245</v>
+        <v>5.860601</v>
       </c>
       <c r="O3">
-        <v>0.7055955423976366</v>
+        <v>0.2968145242282677</v>
       </c>
       <c r="P3">
-        <v>0.7055955423976366</v>
+        <v>0.2968145242282677</v>
       </c>
       <c r="Q3">
-        <v>14.63155709652228</v>
+        <v>7.71483655039</v>
       </c>
       <c r="R3">
-        <v>14.63155709652228</v>
+        <v>69.43352895350999</v>
       </c>
       <c r="S3">
-        <v>0.09636967332368644</v>
+        <v>0.04074643063564547</v>
       </c>
       <c r="T3">
-        <v>0.09636967332368644</v>
+        <v>0.04074643063564547</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.73637506812955</v>
+        <v>3.94917</v>
       </c>
       <c r="H4">
-        <v>2.73637506812955</v>
+        <v>11.84751</v>
       </c>
       <c r="I4">
-        <v>0.1011165463508614</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="J4">
-        <v>0.1011165463508614</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.65173793796978</v>
+        <v>0.1507333333333333</v>
       </c>
       <c r="N4">
-        <v>1.65173793796978</v>
+        <v>0.4522</v>
       </c>
       <c r="O4">
-        <v>0.2944044576023635</v>
+        <v>0.02290200746579107</v>
       </c>
       <c r="P4">
-        <v>0.2944044576023635</v>
+        <v>0.02290200746579108</v>
       </c>
       <c r="Q4">
-        <v>4.519774512544219</v>
+        <v>0.595271558</v>
       </c>
       <c r="R4">
-        <v>4.519774512544219</v>
+        <v>5.357444022</v>
       </c>
       <c r="S4">
-        <v>0.02976916198304959</v>
+        <v>0.003143966964043258</v>
       </c>
       <c r="T4">
-        <v>0.02976916198304959</v>
+        <v>0.003143966964043259</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.73637506812955</v>
+        <v>3.94917</v>
       </c>
       <c r="H5">
-        <v>2.73637506812955</v>
+        <v>11.84751</v>
       </c>
       <c r="I5">
-        <v>0.1011165463508614</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="J5">
-        <v>0.1011165463508614</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>3.95869999976245</v>
+        <v>0.035609</v>
       </c>
       <c r="N5">
-        <v>3.95869999976245</v>
+        <v>0.106827</v>
       </c>
       <c r="O5">
-        <v>0.7055955423976366</v>
+        <v>0.005410333373613585</v>
       </c>
       <c r="P5">
-        <v>0.7055955423976366</v>
+        <v>0.005410333373613586</v>
       </c>
       <c r="Q5">
-        <v>10.83248798155442</v>
+        <v>0.14062599453</v>
       </c>
       <c r="R5">
-        <v>10.83248798155442</v>
+        <v>1.26563395077</v>
       </c>
       <c r="S5">
-        <v>0.07134738436781178</v>
+        <v>0.0007427256940907766</v>
       </c>
       <c r="T5">
-        <v>0.07134738436781178</v>
+        <v>0.0007427256940907767</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.6291693560275</v>
+        <v>3.94917</v>
       </c>
       <c r="H6">
-        <v>20.6291693560275</v>
+        <v>11.84751</v>
       </c>
       <c r="I6">
-        <v>0.7623042556057111</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="J6">
-        <v>0.7623042556057111</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.65173793796978</v>
+        <v>4.314641333333333</v>
       </c>
       <c r="N6">
-        <v>1.65173793796978</v>
+        <v>12.943924</v>
       </c>
       <c r="O6">
-        <v>0.2944044576023635</v>
+        <v>0.6555547193379749</v>
       </c>
       <c r="P6">
-        <v>0.2944044576023635</v>
+        <v>0.655554719337975</v>
       </c>
       <c r="Q6">
-        <v>34.07398165415424</v>
+        <v>17.03925211436</v>
       </c>
       <c r="R6">
-        <v>34.07398165415424</v>
+        <v>153.35326902924</v>
       </c>
       <c r="S6">
-        <v>0.2244257708995729</v>
+        <v>0.08999396161231019</v>
       </c>
       <c r="T6">
-        <v>0.2244257708995729</v>
+        <v>0.0899939616123102</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.958532</v>
+      </c>
+      <c r="H7">
+        <v>8.875596</v>
+      </c>
+      <c r="I7">
+        <v>0.1028430300826775</v>
+      </c>
+      <c r="J7">
+        <v>0.1028430300826775</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.1271473333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.381442</v>
+      </c>
+      <c r="O7">
+        <v>0.01931841559435267</v>
+      </c>
+      <c r="P7">
+        <v>0.01931841559435268</v>
+      </c>
+      <c r="Q7">
+        <v>0.3761694543813333</v>
+      </c>
+      <c r="R7">
+        <v>3.385525089432</v>
+      </c>
+      <c r="S7">
+        <v>0.001986764396119677</v>
+      </c>
+      <c r="T7">
+        <v>0.001986764396119678</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.958532</v>
+      </c>
+      <c r="H8">
+        <v>8.875596</v>
+      </c>
+      <c r="I8">
+        <v>0.1028430300826775</v>
+      </c>
+      <c r="J8">
+        <v>0.1028430300826775</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.953533666666667</v>
+      </c>
+      <c r="N8">
+        <v>5.860601</v>
+      </c>
+      <c r="O8">
+        <v>0.2968145242282677</v>
+      </c>
+      <c r="P8">
+        <v>0.2968145242282677</v>
+      </c>
+      <c r="Q8">
+        <v>5.779591865910667</v>
+      </c>
+      <c r="R8">
+        <v>52.016326793196</v>
+      </c>
+      <c r="S8">
+        <v>0.03052530504418333</v>
+      </c>
+      <c r="T8">
+        <v>0.03052530504418333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.958532</v>
+      </c>
+      <c r="H9">
+        <v>8.875596</v>
+      </c>
+      <c r="I9">
+        <v>0.1028430300826775</v>
+      </c>
+      <c r="J9">
+        <v>0.1028430300826775</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.1507333333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.4522</v>
+      </c>
+      <c r="O9">
+        <v>0.02290200746579107</v>
+      </c>
+      <c r="P9">
+        <v>0.02290200746579108</v>
+      </c>
+      <c r="Q9">
+        <v>0.4459493901333333</v>
+      </c>
+      <c r="R9">
+        <v>4.0135445112</v>
+      </c>
+      <c r="S9">
+        <v>0.002355311842758055</v>
+      </c>
+      <c r="T9">
+        <v>0.002355311842758055</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.958532</v>
+      </c>
+      <c r="H10">
+        <v>8.875596</v>
+      </c>
+      <c r="I10">
+        <v>0.1028430300826775</v>
+      </c>
+      <c r="J10">
+        <v>0.1028430300826775</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.035609</v>
+      </c>
+      <c r="N10">
+        <v>0.106827</v>
+      </c>
+      <c r="O10">
+        <v>0.005410333373613585</v>
+      </c>
+      <c r="P10">
+        <v>0.005410333373613586</v>
+      </c>
+      <c r="Q10">
+        <v>0.105350365988</v>
+      </c>
+      <c r="R10">
+        <v>0.948153293892</v>
+      </c>
+      <c r="S10">
+        <v>0.0005564150778998557</v>
+      </c>
+      <c r="T10">
+        <v>0.0005564150778998558</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.958532</v>
+      </c>
+      <c r="H11">
+        <v>8.875596</v>
+      </c>
+      <c r="I11">
+        <v>0.1028430300826775</v>
+      </c>
+      <c r="J11">
+        <v>0.1028430300826775</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>4.314641333333333</v>
+      </c>
+      <c r="N11">
+        <v>12.943924</v>
+      </c>
+      <c r="O11">
+        <v>0.6555547193379749</v>
+      </c>
+      <c r="P11">
+        <v>0.655554719337975</v>
+      </c>
+      <c r="Q11">
+        <v>12.76500445318933</v>
+      </c>
+      <c r="R11">
+        <v>114.885040078704</v>
+      </c>
+      <c r="S11">
+        <v>0.06741923372171653</v>
+      </c>
+      <c r="T11">
+        <v>0.06741923372171654</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>20.6291693560275</v>
-      </c>
-      <c r="H7">
-        <v>20.6291693560275</v>
-      </c>
-      <c r="I7">
-        <v>0.7623042556057111</v>
-      </c>
-      <c r="J7">
-        <v>0.7623042556057111</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>3.95869999976245</v>
-      </c>
-      <c r="N7">
-        <v>3.95869999976245</v>
-      </c>
-      <c r="O7">
-        <v>0.7055955423976366</v>
-      </c>
-      <c r="P7">
-        <v>0.7055955423976366</v>
-      </c>
-      <c r="Q7">
-        <v>81.6646927248056</v>
-      </c>
-      <c r="R7">
-        <v>81.6646927248056</v>
-      </c>
-      <c r="S7">
-        <v>0.5378784847061383</v>
-      </c>
-      <c r="T7">
-        <v>0.5378784847061383</v>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.06096333333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.18289</v>
+      </c>
+      <c r="I12">
+        <v>0.002119177323057615</v>
+      </c>
+      <c r="J12">
+        <v>0.002119177323057615</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.1271473333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.381442</v>
+      </c>
+      <c r="O12">
+        <v>0.01931841559435267</v>
+      </c>
+      <c r="P12">
+        <v>0.01931841559435268</v>
+      </c>
+      <c r="Q12">
+        <v>0.007751325264444445</v>
+      </c>
+      <c r="R12">
+        <v>0.06976192738000001</v>
+      </c>
+      <c r="S12">
+        <v>4.093914824495479E-05</v>
+      </c>
+      <c r="T12">
+        <v>4.093914824495479E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.06096333333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.18289</v>
+      </c>
+      <c r="I13">
+        <v>0.002119177323057615</v>
+      </c>
+      <c r="J13">
+        <v>0.002119177323057615</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.953533666666667</v>
+      </c>
+      <c r="N13">
+        <v>5.860601</v>
+      </c>
+      <c r="O13">
+        <v>0.2968145242282677</v>
+      </c>
+      <c r="P13">
+        <v>0.2968145242282677</v>
+      </c>
+      <c r="Q13">
+        <v>0.1190939240988889</v>
+      </c>
+      <c r="R13">
+        <v>1.07184531689</v>
+      </c>
+      <c r="S13">
+        <v>0.00062900260889868</v>
+      </c>
+      <c r="T13">
+        <v>0.00062900260889868</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.06096333333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.18289</v>
+      </c>
+      <c r="I14">
+        <v>0.002119177323057615</v>
+      </c>
+      <c r="J14">
+        <v>0.002119177323057615</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.1507333333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.4522</v>
+      </c>
+      <c r="O14">
+        <v>0.02290200746579107</v>
+      </c>
+      <c r="P14">
+        <v>0.02290200746579108</v>
+      </c>
+      <c r="Q14">
+        <v>0.009189206444444445</v>
+      </c>
+      <c r="R14">
+        <v>0.08270285799999999</v>
+      </c>
+      <c r="S14">
+        <v>4.853341487400065E-05</v>
+      </c>
+      <c r="T14">
+        <v>4.853341487400066E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.06096333333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.18289</v>
+      </c>
+      <c r="I15">
+        <v>0.002119177323057615</v>
+      </c>
+      <c r="J15">
+        <v>0.002119177323057615</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.035609</v>
+      </c>
+      <c r="N15">
+        <v>0.106827</v>
+      </c>
+      <c r="O15">
+        <v>0.005410333373613585</v>
+      </c>
+      <c r="P15">
+        <v>0.005410333373613586</v>
+      </c>
+      <c r="Q15">
+        <v>0.002170843336666667</v>
+      </c>
+      <c r="R15">
+        <v>0.01953759003</v>
+      </c>
+      <c r="S15">
+        <v>1.146545579554371E-05</v>
+      </c>
+      <c r="T15">
+        <v>1.146545579554372E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.06096333333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.18289</v>
+      </c>
+      <c r="I16">
+        <v>0.002119177323057615</v>
+      </c>
+      <c r="J16">
+        <v>0.002119177323057615</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>4.314641333333333</v>
+      </c>
+      <c r="N16">
+        <v>12.943924</v>
+      </c>
+      <c r="O16">
+        <v>0.6555547193379749</v>
+      </c>
+      <c r="P16">
+        <v>0.655554719337975</v>
+      </c>
+      <c r="Q16">
+        <v>0.2630349178177778</v>
+      </c>
+      <c r="R16">
+        <v>2.36731426036</v>
+      </c>
+      <c r="S16">
+        <v>0.001389236695244436</v>
+      </c>
+      <c r="T16">
+        <v>0.001389236695244436</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>21.79878733333334</v>
+      </c>
+      <c r="H17">
+        <v>65.39636200000001</v>
+      </c>
+      <c r="I17">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="J17">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.1271473333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.381442</v>
+      </c>
+      <c r="O17">
+        <v>0.01931841559435267</v>
+      </c>
+      <c r="P17">
+        <v>0.01931841559435268</v>
+      </c>
+      <c r="Q17">
+        <v>2.771657679333778</v>
+      </c>
+      <c r="R17">
+        <v>24.944919114004</v>
+      </c>
+      <c r="S17">
+        <v>0.01463869735140647</v>
+      </c>
+      <c r="T17">
+        <v>0.01463869735140647</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>21.79878733333334</v>
+      </c>
+      <c r="H18">
+        <v>65.39636200000001</v>
+      </c>
+      <c r="I18">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="J18">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.953533666666667</v>
+      </c>
+      <c r="N18">
+        <v>5.860601</v>
+      </c>
+      <c r="O18">
+        <v>0.2968145242282677</v>
+      </c>
+      <c r="P18">
+        <v>0.2968145242282677</v>
+      </c>
+      <c r="Q18">
+        <v>42.58466494817356</v>
+      </c>
+      <c r="R18">
+        <v>383.261984533562</v>
+      </c>
+      <c r="S18">
+        <v>0.2249137859395402</v>
+      </c>
+      <c r="T18">
+        <v>0.2249137859395402</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>21.79878733333334</v>
+      </c>
+      <c r="H19">
+        <v>65.39636200000001</v>
+      </c>
+      <c r="I19">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="J19">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.1507333333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.4522</v>
+      </c>
+      <c r="O19">
+        <v>0.02290200746579107</v>
+      </c>
+      <c r="P19">
+        <v>0.02290200746579108</v>
+      </c>
+      <c r="Q19">
+        <v>3.285803877377778</v>
+      </c>
+      <c r="R19">
+        <v>29.5722348964</v>
+      </c>
+      <c r="S19">
+        <v>0.01735419524411576</v>
+      </c>
+      <c r="T19">
+        <v>0.01735419524411576</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>21.79878733333334</v>
+      </c>
+      <c r="H20">
+        <v>65.39636200000001</v>
+      </c>
+      <c r="I20">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="J20">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.035609</v>
+      </c>
+      <c r="N20">
+        <v>0.106827</v>
+      </c>
+      <c r="O20">
+        <v>0.005410333373613585</v>
+      </c>
+      <c r="P20">
+        <v>0.005410333373613586</v>
+      </c>
+      <c r="Q20">
+        <v>0.7762330181526669</v>
+      </c>
+      <c r="R20">
+        <v>6.986097163374001</v>
+      </c>
+      <c r="S20">
+        <v>0.004099727145827409</v>
+      </c>
+      <c r="T20">
+        <v>0.00409972714582741</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>21.79878733333334</v>
+      </c>
+      <c r="H21">
+        <v>65.39636200000001</v>
+      </c>
+      <c r="I21">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="J21">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>4.314641333333333</v>
+      </c>
+      <c r="N21">
+        <v>12.943924</v>
+      </c>
+      <c r="O21">
+        <v>0.6555547193379749</v>
+      </c>
+      <c r="P21">
+        <v>0.655554719337975</v>
+      </c>
+      <c r="Q21">
+        <v>94.05394884494312</v>
+      </c>
+      <c r="R21">
+        <v>846.4855396044881</v>
+      </c>
+      <c r="S21">
+        <v>0.4967522873087038</v>
+      </c>
+      <c r="T21">
+        <v>0.4967522873087039</v>
       </c>
     </row>
   </sheetData>
